--- a/data/Census Data/table05_1.xlsx
+++ b/data/Census Data/table05_1.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ADC-sds\Essb\Reports, Paper, Tables\VOTING\Table Packages\2020 Voting Tables\Cleaned Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba422ccbc3da4ec8/Documents/Statistical Principals for Data Science/electionAnalysis/data/Census Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D0BF7DA-7179-4E1E-ACC1-50D1587CE9C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{4D0BF7DA-7179-4E1E-ACC1-50D1587CE9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A318685-F20C-487B-A4BB-F0EA03DB8693}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="795" windowWidth="27675" windowHeight="13470" xr2:uid="{32EC0D97-3D52-43F2-80D8-E3559AC0A7B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{32EC0D97-3D52-43F2-80D8-E3559AC0A7B9}"/>
   </bookViews>
   <sheets>
     <sheet name="18 years and over" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="48">
   <si>
     <t>Table with row headers in columns A, B and C, and column headers in rows 5 through 7 and rows 41 through 43.</t>
   </si>
@@ -181,6 +183,51 @@
   <si>
     <t>Table 5a. Margins of Error for Estimates of Voting and Registration by Age, Sex, and Educational Attainment: November 2020</t>
   </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Reported registered - total pop %</t>
+  </si>
+  <si>
+    <t>Reported voted - total pop %</t>
+  </si>
+  <si>
+    <t>No response to voting2 -Number</t>
+  </si>
+  <si>
+    <t>No response to voting2 -Percent</t>
+  </si>
+  <si>
+    <t>Reported not voted-Number</t>
+  </si>
+  <si>
+    <t>Reported not voted-Percent</t>
+  </si>
+  <si>
+    <t>Reported voted-Number</t>
+  </si>
+  <si>
+    <t>Reported voted-Percent</t>
+  </si>
+  <si>
+    <t>No response to registration1 -Number</t>
+  </si>
+  <si>
+    <t>No response to registration1 -Percent</t>
+  </si>
+  <si>
+    <t>Reported not registered-Number</t>
+  </si>
+  <si>
+    <t>Reported not registered-Percent</t>
+  </si>
+  <si>
+    <t>Reported registered-Number</t>
+  </si>
+  <si>
+    <t>Reported registered-Percent</t>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -391,11 +438,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -407,53 +463,17 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -464,13 +484,76 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,9 +572,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -529,7 +612,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -635,7 +718,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -777,7 +860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -785,2584 +868,2679 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2515B4F0-B094-4EC0-833C-427EA9A16AB9}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="H15" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:S28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="18" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="4"/>
+    <col min="3" max="3" width="33" style="4" customWidth="1"/>
+    <col min="4" max="5" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="19" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="4" spans="1:19" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="8" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="7" t="s">
+      <c r="S5" s="19"/>
+    </row>
+    <row r="6" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="19"/>
+      <c r="N6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="S6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="16" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="M7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="N7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="O7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="Q7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="R7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="S7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
         <v>252274</v>
       </c>
-      <c r="D8" s="22">
+      <c r="E8" s="10">
         <v>231593</v>
       </c>
-      <c r="E8" s="22">
+      <c r="F8" s="10">
         <v>168308</v>
       </c>
-      <c r="F8" s="23">
+      <c r="G8" s="11">
         <v>72.7</v>
       </c>
-      <c r="G8" s="22">
+      <c r="H8" s="10">
         <v>25782</v>
       </c>
-      <c r="H8" s="23">
+      <c r="I8" s="11">
         <v>11.1</v>
       </c>
-      <c r="I8" s="22">
+      <c r="J8" s="10">
         <v>37503</v>
       </c>
-      <c r="J8" s="23">
+      <c r="K8" s="11">
         <v>16.2</v>
       </c>
-      <c r="K8" s="22">
+      <c r="L8" s="10">
         <v>154628</v>
       </c>
-      <c r="L8" s="23">
+      <c r="M8" s="11">
         <v>66.8</v>
       </c>
-      <c r="M8" s="22">
+      <c r="N8" s="10">
         <v>40561</v>
       </c>
-      <c r="N8" s="23">
+      <c r="O8" s="11">
         <v>17.5</v>
       </c>
-      <c r="O8" s="22">
+      <c r="P8" s="10">
         <v>36404</v>
       </c>
-      <c r="P8" s="23">
+      <c r="Q8" s="11">
         <v>15.7</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="R8" s="11">
         <v>66.7</v>
       </c>
-      <c r="R8" s="23">
+      <c r="S8" s="11">
         <v>61.3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
         <v>8685</v>
       </c>
-      <c r="D9" s="22">
+      <c r="E9" s="10">
         <v>4792</v>
       </c>
-      <c r="E9" s="22">
+      <c r="F9" s="10">
         <v>2196</v>
       </c>
-      <c r="F9" s="23">
+      <c r="G9" s="11">
         <v>45.8</v>
       </c>
-      <c r="G9" s="22">
+      <c r="H9" s="10">
         <v>1578</v>
       </c>
-      <c r="H9" s="23">
+      <c r="I9" s="11">
         <v>32.9</v>
       </c>
-      <c r="I9" s="22">
+      <c r="J9" s="10">
         <v>1017</v>
       </c>
-      <c r="J9" s="23">
+      <c r="K9" s="11">
         <v>21.2</v>
       </c>
-      <c r="K9" s="22">
+      <c r="L9" s="10">
         <v>1800</v>
       </c>
-      <c r="L9" s="23">
+      <c r="M9" s="11">
         <v>37.6</v>
       </c>
-      <c r="M9" s="22">
+      <c r="N9" s="10">
         <v>2035</v>
       </c>
-      <c r="N9" s="23">
+      <c r="O9" s="11">
         <v>42.5</v>
       </c>
-      <c r="O9" s="22">
+      <c r="P9" s="10">
         <v>956</v>
       </c>
-      <c r="P9" s="23">
+      <c r="Q9" s="11">
         <v>20</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="R9" s="11">
         <v>25.3</v>
       </c>
-      <c r="R9" s="23">
+      <c r="S9" s="11">
         <v>20.7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
         <v>15025</v>
       </c>
-      <c r="D10" s="22">
+      <c r="E10" s="10">
         <v>12738</v>
       </c>
-      <c r="E10" s="22">
+      <c r="F10" s="10">
         <v>6435</v>
       </c>
-      <c r="F10" s="23">
+      <c r="G10" s="11">
         <v>50.5</v>
       </c>
-      <c r="G10" s="22">
+      <c r="H10" s="10">
         <v>3534</v>
       </c>
-      <c r="H10" s="23">
+      <c r="I10" s="11">
         <v>27.7</v>
       </c>
-      <c r="I10" s="22">
+      <c r="J10" s="10">
         <v>2770</v>
       </c>
-      <c r="J10" s="23">
+      <c r="K10" s="11">
         <v>21.7</v>
       </c>
-      <c r="K10" s="22">
+      <c r="L10" s="10">
         <v>5283</v>
       </c>
-      <c r="L10" s="23">
+      <c r="M10" s="11">
         <v>41.5</v>
       </c>
-      <c r="M10" s="22">
+      <c r="N10" s="10">
         <v>4870</v>
       </c>
-      <c r="N10" s="23">
+      <c r="O10" s="11">
         <v>38.200000000000003</v>
       </c>
-      <c r="O10" s="22">
+      <c r="P10" s="10">
         <v>2585</v>
       </c>
-      <c r="P10" s="23">
+      <c r="Q10" s="11">
         <v>20.3</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="R10" s="11">
         <v>42.8</v>
       </c>
-      <c r="R10" s="23">
+      <c r="S10" s="11">
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
         <v>73329</v>
       </c>
-      <c r="D11" s="22">
+      <c r="E11" s="10">
         <v>67539</v>
       </c>
-      <c r="E11" s="22">
+      <c r="F11" s="10">
         <v>42801</v>
       </c>
-      <c r="F11" s="23">
+      <c r="G11" s="11">
         <v>63.4</v>
       </c>
-      <c r="G11" s="22">
+      <c r="H11" s="10">
         <v>11830</v>
       </c>
-      <c r="H11" s="23">
+      <c r="I11" s="11">
         <v>17.5</v>
       </c>
-      <c r="I11" s="22">
+      <c r="J11" s="10">
         <v>12908</v>
       </c>
-      <c r="J11" s="23">
+      <c r="K11" s="11">
         <v>19.100000000000001</v>
       </c>
-      <c r="K11" s="22">
+      <c r="L11" s="10">
         <v>37456</v>
       </c>
-      <c r="L11" s="23">
+      <c r="M11" s="11">
         <v>55.5</v>
       </c>
-      <c r="M11" s="22">
+      <c r="N11" s="10">
         <v>17769</v>
       </c>
-      <c r="N11" s="23">
+      <c r="O11" s="11">
         <v>26.3</v>
       </c>
-      <c r="O11" s="22">
+      <c r="P11" s="10">
         <v>12314</v>
       </c>
-      <c r="P11" s="23">
+      <c r="Q11" s="11">
         <v>18.2</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="R11" s="11">
         <v>58.4</v>
       </c>
-      <c r="R11" s="23">
+      <c r="S11" s="11">
         <v>51.1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
         <v>68797</v>
       </c>
-      <c r="D12" s="22">
+      <c r="E12" s="10">
         <v>66049</v>
       </c>
-      <c r="E12" s="22">
+      <c r="F12" s="10">
         <v>50184</v>
       </c>
-      <c r="F12" s="23">
+      <c r="G12" s="11">
         <v>76</v>
       </c>
-      <c r="G12" s="22">
+      <c r="H12" s="10">
         <v>5844</v>
       </c>
-      <c r="H12" s="23">
+      <c r="I12" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I12" s="22">
+      <c r="J12" s="10">
         <v>10021</v>
       </c>
-      <c r="J12" s="23">
+      <c r="K12" s="11">
         <v>15.2</v>
       </c>
-      <c r="K12" s="22">
+      <c r="L12" s="10">
         <v>45955</v>
       </c>
-      <c r="L12" s="23">
+      <c r="M12" s="11">
         <v>69.599999999999994</v>
       </c>
-      <c r="M12" s="22">
+      <c r="N12" s="10">
         <v>10217</v>
       </c>
-      <c r="N12" s="23">
+      <c r="O12" s="11">
         <v>15.5</v>
       </c>
-      <c r="O12" s="22">
+      <c r="P12" s="10">
         <v>9876</v>
       </c>
-      <c r="P12" s="23">
+      <c r="Q12" s="11">
         <v>15</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="R12" s="11">
         <v>72.900000000000006</v>
       </c>
-      <c r="R12" s="23">
+      <c r="S12" s="11">
         <v>66.8</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
         <v>55097</v>
       </c>
-      <c r="D13" s="22">
+      <c r="E13" s="10">
         <v>51762</v>
       </c>
-      <c r="E13" s="22">
+      <c r="F13" s="10">
         <v>42224</v>
       </c>
-      <c r="F13" s="23">
+      <c r="G13" s="11">
         <v>81.599999999999994</v>
       </c>
-      <c r="G13" s="22">
+      <c r="H13" s="10">
         <v>2273</v>
       </c>
-      <c r="H13" s="23">
+      <c r="I13" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I13" s="22">
+      <c r="J13" s="10">
         <v>7265</v>
       </c>
-      <c r="J13" s="23">
+      <c r="K13" s="11">
         <v>14</v>
       </c>
-      <c r="K13" s="22">
+      <c r="L13" s="10">
         <v>40312</v>
       </c>
-      <c r="L13" s="23">
+      <c r="M13" s="11">
         <v>77.900000000000006</v>
       </c>
-      <c r="M13" s="22">
+      <c r="N13" s="10">
         <v>4284</v>
       </c>
-      <c r="N13" s="23">
+      <c r="O13" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O13" s="22">
+      <c r="P13" s="10">
         <v>7166</v>
       </c>
-      <c r="P13" s="23">
+      <c r="Q13" s="11">
         <v>13.8</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="R13" s="11">
         <v>76.599999999999994</v>
       </c>
-      <c r="R13" s="23">
+      <c r="S13" s="11">
         <v>73.2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
         <v>31342</v>
       </c>
-      <c r="D14" s="22">
+      <c r="E14" s="10">
         <v>28713</v>
       </c>
-      <c r="E14" s="22">
+      <c r="F14" s="10">
         <v>24468</v>
       </c>
-      <c r="F14" s="23">
+      <c r="G14" s="11">
         <v>85.2</v>
       </c>
-      <c r="G14" s="22">
+      <c r="H14" s="10">
         <v>723</v>
       </c>
-      <c r="H14" s="23">
+      <c r="I14" s="11">
         <v>2.5</v>
       </c>
-      <c r="I14" s="22">
+      <c r="J14" s="10">
         <v>3522</v>
       </c>
-      <c r="J14" s="23">
+      <c r="K14" s="11">
         <v>12.3</v>
       </c>
-      <c r="K14" s="22">
+      <c r="L14" s="10">
         <v>23821</v>
       </c>
-      <c r="L14" s="23">
+      <c r="M14" s="11">
         <v>83</v>
       </c>
-      <c r="M14" s="22">
+      <c r="N14" s="10">
         <v>1386</v>
       </c>
-      <c r="N14" s="23">
+      <c r="O14" s="11">
         <v>4.8</v>
       </c>
-      <c r="O14" s="22">
+      <c r="P14" s="10">
         <v>3506</v>
       </c>
-      <c r="P14" s="23">
+      <c r="Q14" s="11">
         <v>12.2</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="R14" s="11">
         <v>78.099999999999994</v>
       </c>
-      <c r="R14" s="23">
+      <c r="S14" s="11">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
         <v>121870</v>
       </c>
-      <c r="D15" s="22">
+      <c r="E15" s="10">
         <v>111485</v>
       </c>
-      <c r="E15" s="22">
+      <c r="F15" s="10">
         <v>79340</v>
       </c>
-      <c r="F15" s="23">
+      <c r="G15" s="11">
         <v>71.2</v>
       </c>
-      <c r="G15" s="22">
+      <c r="H15" s="10">
         <v>13698</v>
       </c>
-      <c r="H15" s="23">
+      <c r="I15" s="11">
         <v>12.3</v>
       </c>
-      <c r="I15" s="22">
+      <c r="J15" s="10">
         <v>18447</v>
       </c>
-      <c r="J15" s="23">
+      <c r="K15" s="11">
         <v>16.5</v>
       </c>
-      <c r="K15" s="22">
+      <c r="L15" s="10">
         <v>72474</v>
       </c>
-      <c r="L15" s="23">
+      <c r="M15" s="11">
         <v>65</v>
       </c>
-      <c r="M15" s="22">
+      <c r="N15" s="10">
         <v>21147</v>
       </c>
-      <c r="N15" s="23">
+      <c r="O15" s="11">
         <v>19</v>
       </c>
-      <c r="O15" s="22">
+      <c r="P15" s="10">
         <v>17863</v>
       </c>
-      <c r="P15" s="23">
+      <c r="Q15" s="11">
         <v>16</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="R15" s="11">
         <v>65.099999999999994</v>
       </c>
-      <c r="R15" s="23">
+      <c r="S15" s="11">
         <v>59.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
         <v>4358</v>
       </c>
-      <c r="D16" s="22">
+      <c r="E16" s="10">
         <v>2403</v>
       </c>
-      <c r="E16" s="22">
+      <c r="F16" s="10">
         <v>1050</v>
       </c>
-      <c r="F16" s="23">
+      <c r="G16" s="11">
         <v>43.7</v>
       </c>
-      <c r="G16" s="22">
+      <c r="H16" s="10">
         <v>806</v>
       </c>
-      <c r="H16" s="23">
+      <c r="I16" s="11">
         <v>33.5</v>
       </c>
-      <c r="I16" s="22">
+      <c r="J16" s="10">
         <v>547</v>
       </c>
-      <c r="J16" s="23">
+      <c r="K16" s="11">
         <v>22.8</v>
       </c>
-      <c r="K16" s="22">
+      <c r="L16" s="10">
         <v>889</v>
       </c>
-      <c r="L16" s="23">
+      <c r="M16" s="11">
         <v>37</v>
       </c>
-      <c r="M16" s="22">
+      <c r="N16" s="10">
         <v>1007</v>
       </c>
-      <c r="N16" s="23">
+      <c r="O16" s="11">
         <v>41.9</v>
       </c>
-      <c r="O16" s="22">
+      <c r="P16" s="10">
         <v>507</v>
       </c>
-      <c r="P16" s="23">
+      <c r="Q16" s="11">
         <v>21.1</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="R16" s="11">
         <v>24.1</v>
       </c>
-      <c r="R16" s="23">
+      <c r="S16" s="11">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
         <v>7971</v>
       </c>
-      <c r="D17" s="22">
+      <c r="E17" s="10">
         <v>6770</v>
       </c>
-      <c r="E17" s="22">
+      <c r="F17" s="10">
         <v>3255</v>
       </c>
-      <c r="F17" s="23">
+      <c r="G17" s="11">
         <v>48.1</v>
       </c>
-      <c r="G17" s="22">
+      <c r="H17" s="10">
         <v>2056</v>
       </c>
-      <c r="H17" s="23">
+      <c r="I17" s="11">
         <v>30.4</v>
       </c>
-      <c r="I17" s="22">
+      <c r="J17" s="10">
         <v>1459</v>
       </c>
-      <c r="J17" s="23">
+      <c r="K17" s="11">
         <v>21.5</v>
       </c>
-      <c r="K17" s="22">
+      <c r="L17" s="10">
         <v>2663</v>
       </c>
-      <c r="L17" s="23">
+      <c r="M17" s="11">
         <v>39.299999999999997</v>
       </c>
-      <c r="M17" s="22">
+      <c r="N17" s="10">
         <v>2750</v>
       </c>
-      <c r="N17" s="23">
+      <c r="O17" s="11">
         <v>40.6</v>
       </c>
-      <c r="O17" s="22">
+      <c r="P17" s="10">
         <v>1357</v>
       </c>
-      <c r="P17" s="23">
+      <c r="Q17" s="11">
         <v>20</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="R17" s="11">
         <v>40.799999999999997</v>
       </c>
-      <c r="R17" s="23">
+      <c r="S17" s="11">
         <v>33.4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
         <v>37483</v>
       </c>
-      <c r="D18" s="22">
+      <c r="E18" s="10">
         <v>34460</v>
       </c>
-      <c r="E18" s="22">
+      <c r="F18" s="10">
         <v>21214</v>
       </c>
-      <c r="F18" s="23">
+      <c r="G18" s="11">
         <v>61.6</v>
       </c>
-      <c r="G18" s="22">
+      <c r="H18" s="10">
         <v>6638</v>
       </c>
-      <c r="H18" s="23">
+      <c r="I18" s="11">
         <v>19.3</v>
       </c>
-      <c r="I18" s="22">
+      <c r="J18" s="10">
         <v>6609</v>
       </c>
-      <c r="J18" s="23">
+      <c r="K18" s="11">
         <v>19.2</v>
       </c>
-      <c r="K18" s="22">
+      <c r="L18" s="10">
         <v>18374</v>
       </c>
-      <c r="L18" s="23">
+      <c r="M18" s="11">
         <v>53.3</v>
       </c>
-      <c r="M18" s="22">
+      <c r="N18" s="10">
         <v>9738</v>
       </c>
-      <c r="N18" s="23">
+      <c r="O18" s="11">
         <v>28.3</v>
       </c>
-      <c r="O18" s="22">
+      <c r="P18" s="10">
         <v>6348</v>
       </c>
-      <c r="P18" s="23">
+      <c r="Q18" s="11">
         <v>18.399999999999999</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="R18" s="11">
         <v>56.6</v>
       </c>
-      <c r="R18" s="23">
+      <c r="S18" s="11">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
         <v>31870</v>
       </c>
-      <c r="D19" s="22">
+      <c r="E19" s="10">
         <v>30656</v>
       </c>
-      <c r="E19" s="22">
+      <c r="F19" s="10">
         <v>23209</v>
       </c>
-      <c r="F19" s="23">
+      <c r="G19" s="11">
         <v>75.7</v>
       </c>
-      <c r="G19" s="22">
+      <c r="H19" s="10">
         <v>2701</v>
       </c>
-      <c r="H19" s="23">
+      <c r="I19" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I19" s="22">
+      <c r="J19" s="10">
         <v>4746</v>
       </c>
-      <c r="J19" s="23">
+      <c r="K19" s="11">
         <v>15.5</v>
       </c>
-      <c r="K19" s="22">
+      <c r="L19" s="10">
         <v>21113</v>
       </c>
-      <c r="L19" s="23">
+      <c r="M19" s="11">
         <v>68.900000000000006</v>
       </c>
-      <c r="M19" s="22">
+      <c r="N19" s="10">
         <v>4901</v>
       </c>
-      <c r="N19" s="23">
+      <c r="O19" s="11">
         <v>16</v>
       </c>
-      <c r="O19" s="22">
+      <c r="P19" s="10">
         <v>4642</v>
       </c>
-      <c r="P19" s="23">
+      <c r="Q19" s="11">
         <v>15.1</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="R19" s="11">
         <v>72.8</v>
       </c>
-      <c r="R19" s="23">
+      <c r="S19" s="11">
         <v>66.2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
+      <c r="B20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
         <v>25593</v>
       </c>
-      <c r="D20" s="22">
+      <c r="E20" s="10">
         <v>23974</v>
       </c>
-      <c r="E20" s="22">
+      <c r="F20" s="10">
         <v>19456</v>
       </c>
-      <c r="F20" s="23">
+      <c r="G20" s="11">
         <v>81.2</v>
       </c>
-      <c r="G20" s="22">
+      <c r="H20" s="10">
         <v>1128</v>
       </c>
-      <c r="H20" s="23">
+      <c r="I20" s="11">
         <v>4.7</v>
       </c>
-      <c r="I20" s="22">
+      <c r="J20" s="10">
         <v>3390</v>
       </c>
-      <c r="J20" s="23">
+      <c r="K20" s="11">
         <v>14.1</v>
       </c>
-      <c r="K20" s="22">
+      <c r="L20" s="10">
         <v>18521</v>
       </c>
-      <c r="L20" s="23">
+      <c r="M20" s="11">
         <v>77.3</v>
       </c>
-      <c r="M20" s="22">
+      <c r="N20" s="10">
         <v>2121</v>
       </c>
-      <c r="N20" s="23">
+      <c r="O20" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="O20" s="22">
+      <c r="P20" s="10">
         <v>3332</v>
       </c>
-      <c r="P20" s="23">
+      <c r="Q20" s="11">
         <v>13.9</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="R20" s="11">
         <v>76</v>
       </c>
-      <c r="R20" s="23">
+      <c r="S20" s="11">
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
         <v>14596</v>
       </c>
-      <c r="D21" s="22">
+      <c r="E21" s="10">
         <v>13222</v>
       </c>
-      <c r="E21" s="22">
+      <c r="F21" s="10">
         <v>11156</v>
       </c>
-      <c r="F21" s="23">
+      <c r="G21" s="11">
         <v>84.4</v>
       </c>
-      <c r="G21" s="22">
+      <c r="H21" s="10">
         <v>369</v>
       </c>
-      <c r="H21" s="23">
+      <c r="I21" s="11">
         <v>2.8</v>
       </c>
-      <c r="I21" s="22">
+      <c r="J21" s="10">
         <v>1697</v>
       </c>
-      <c r="J21" s="23">
+      <c r="K21" s="11">
         <v>12.8</v>
       </c>
-      <c r="K21" s="22">
+      <c r="L21" s="10">
         <v>10914</v>
       </c>
-      <c r="L21" s="23">
+      <c r="M21" s="11">
         <v>82.5</v>
       </c>
-      <c r="M21" s="22">
+      <c r="N21" s="10">
         <v>630</v>
       </c>
-      <c r="N21" s="23">
+      <c r="O21" s="11">
         <v>4.8</v>
       </c>
-      <c r="O21" s="22">
+      <c r="P21" s="10">
         <v>1677</v>
       </c>
-      <c r="P21" s="23">
+      <c r="Q21" s="11">
         <v>12.7</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="R21" s="11">
         <v>76.400000000000006</v>
       </c>
-      <c r="R21" s="23">
+      <c r="S21" s="11">
         <v>74.8</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
         <v>130404</v>
       </c>
-      <c r="D22" s="22">
+      <c r="E22" s="10">
         <v>120108</v>
       </c>
-      <c r="E22" s="22">
+      <c r="F22" s="10">
         <v>88968</v>
       </c>
-      <c r="F22" s="23">
+      <c r="G22" s="11">
         <v>74.099999999999994</v>
       </c>
-      <c r="G22" s="22">
+      <c r="H22" s="10">
         <v>12084</v>
       </c>
-      <c r="H22" s="23">
+      <c r="I22" s="11">
         <v>10.1</v>
       </c>
-      <c r="I22" s="22">
+      <c r="J22" s="10">
         <v>19055</v>
       </c>
-      <c r="J22" s="23">
+      <c r="K22" s="11">
         <v>15.9</v>
       </c>
-      <c r="K22" s="22">
+      <c r="L22" s="10">
         <v>82154</v>
       </c>
-      <c r="L22" s="23">
+      <c r="M22" s="11">
         <v>68.400000000000006</v>
       </c>
-      <c r="M22" s="22">
+      <c r="N22" s="10">
         <v>19414</v>
       </c>
-      <c r="N22" s="23">
+      <c r="O22" s="11">
         <v>16.2</v>
       </c>
-      <c r="O22" s="22">
+      <c r="P22" s="10">
         <v>18541</v>
       </c>
-      <c r="P22" s="23">
+      <c r="Q22" s="11">
         <v>15.4</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="R22" s="11">
         <v>68.2</v>
       </c>
-      <c r="R22" s="23">
+      <c r="S22" s="11">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
         <v>4327</v>
       </c>
-      <c r="D23" s="22">
+      <c r="E23" s="10">
         <v>2389</v>
       </c>
-      <c r="E23" s="22">
+      <c r="F23" s="10">
         <v>1146</v>
       </c>
-      <c r="F23" s="23">
+      <c r="G23" s="11">
         <v>48</v>
       </c>
-      <c r="G23" s="22">
+      <c r="H23" s="10">
         <v>772</v>
       </c>
-      <c r="H23" s="23">
+      <c r="I23" s="11">
         <v>32.299999999999997</v>
       </c>
-      <c r="I23" s="22">
+      <c r="J23" s="10">
         <v>470</v>
       </c>
-      <c r="J23" s="23">
+      <c r="K23" s="11">
         <v>19.7</v>
       </c>
-      <c r="K23" s="22">
+      <c r="L23" s="10">
         <v>912</v>
       </c>
-      <c r="L23" s="23">
+      <c r="M23" s="11">
         <v>38.200000000000003</v>
       </c>
-      <c r="M23" s="22">
+      <c r="N23" s="10">
         <v>1028</v>
       </c>
-      <c r="N23" s="23">
+      <c r="O23" s="11">
         <v>43</v>
       </c>
-      <c r="O23" s="22">
+      <c r="P23" s="10">
         <v>449</v>
       </c>
-      <c r="P23" s="23">
+      <c r="Q23" s="11">
         <v>18.8</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="R23" s="11">
         <v>26.5</v>
       </c>
-      <c r="R23" s="23">
+      <c r="S23" s="11">
         <v>21.1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="14"/>
+      <c r="B24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
         <v>7054</v>
       </c>
-      <c r="D24" s="22">
+      <c r="E24" s="10">
         <v>5968</v>
       </c>
-      <c r="E24" s="22">
+      <c r="F24" s="10">
         <v>3179</v>
       </c>
-      <c r="F24" s="23">
+      <c r="G24" s="11">
         <v>53.3</v>
       </c>
-      <c r="G24" s="22">
+      <c r="H24" s="10">
         <v>1478</v>
       </c>
-      <c r="H24" s="23">
+      <c r="I24" s="11">
         <v>24.8</v>
       </c>
-      <c r="I24" s="22">
+      <c r="J24" s="10">
         <v>1311</v>
       </c>
-      <c r="J24" s="23">
+      <c r="K24" s="11">
         <v>22</v>
       </c>
-      <c r="K24" s="22">
+      <c r="L24" s="10">
         <v>2620</v>
       </c>
-      <c r="L24" s="23">
+      <c r="M24" s="11">
         <v>43.9</v>
       </c>
-      <c r="M24" s="22">
+      <c r="N24" s="10">
         <v>2120</v>
       </c>
-      <c r="N24" s="23">
+      <c r="O24" s="11">
         <v>35.5</v>
       </c>
-      <c r="O24" s="22">
+      <c r="P24" s="10">
         <v>1228</v>
       </c>
-      <c r="P24" s="23">
+      <c r="Q24" s="11">
         <v>20.6</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="R24" s="11">
         <v>45.1</v>
       </c>
-      <c r="R24" s="23">
+      <c r="S24" s="11">
         <v>37.1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="14"/>
+      <c r="B25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
         <v>35846</v>
       </c>
-      <c r="D25" s="22">
+      <c r="E25" s="10">
         <v>33079</v>
       </c>
-      <c r="E25" s="22">
+      <c r="F25" s="10">
         <v>21587</v>
       </c>
-      <c r="F25" s="23">
+      <c r="G25" s="11">
         <v>65.3</v>
       </c>
-      <c r="G25" s="22">
+      <c r="H25" s="10">
         <v>5192</v>
       </c>
-      <c r="H25" s="23">
+      <c r="I25" s="11">
         <v>15.7</v>
       </c>
-      <c r="I25" s="22">
+      <c r="J25" s="10">
         <v>6299</v>
       </c>
-      <c r="J25" s="23">
+      <c r="K25" s="11">
         <v>19</v>
       </c>
-      <c r="K25" s="22">
+      <c r="L25" s="10">
         <v>19082</v>
       </c>
-      <c r="L25" s="23">
+      <c r="M25" s="11">
         <v>57.7</v>
       </c>
-      <c r="M25" s="22">
+      <c r="N25" s="10">
         <v>8030</v>
       </c>
-      <c r="N25" s="23">
+      <c r="O25" s="11">
         <v>24.3</v>
       </c>
-      <c r="O25" s="22">
+      <c r="P25" s="10">
         <v>5966</v>
       </c>
-      <c r="P25" s="23">
+      <c r="Q25" s="11">
         <v>18</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="R25" s="11">
         <v>60.2</v>
       </c>
-      <c r="R25" s="23">
+      <c r="S25" s="11">
         <v>53.2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="21" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="14"/>
+      <c r="B26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
         <v>36928</v>
       </c>
-      <c r="D26" s="22">
+      <c r="E26" s="10">
         <v>35393</v>
       </c>
-      <c r="E26" s="22">
+      <c r="F26" s="10">
         <v>26975</v>
       </c>
-      <c r="F26" s="23">
+      <c r="G26" s="11">
         <v>76.2</v>
       </c>
-      <c r="G26" s="22">
+      <c r="H26" s="10">
         <v>3143</v>
       </c>
-      <c r="H26" s="23">
+      <c r="I26" s="11">
         <v>8.9</v>
       </c>
-      <c r="I26" s="22">
+      <c r="J26" s="10">
         <v>5275</v>
       </c>
-      <c r="J26" s="23">
+      <c r="K26" s="11">
         <v>14.9</v>
       </c>
-      <c r="K26" s="22">
+      <c r="L26" s="10">
         <v>24842</v>
       </c>
-      <c r="L26" s="23">
+      <c r="M26" s="11">
         <v>70.2</v>
       </c>
-      <c r="M26" s="22">
+      <c r="N26" s="10">
         <v>5316</v>
       </c>
-      <c r="N26" s="23">
+      <c r="O26" s="11">
         <v>15</v>
       </c>
-      <c r="O26" s="22">
+      <c r="P26" s="10">
         <v>5234</v>
       </c>
-      <c r="P26" s="23">
+      <c r="Q26" s="11">
         <v>14.8</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="R26" s="11">
         <v>73</v>
       </c>
-      <c r="R26" s="23">
+      <c r="S26" s="11">
         <v>67.3</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
         <v>29504</v>
       </c>
-      <c r="D27" s="22">
+      <c r="E27" s="10">
         <v>27788</v>
       </c>
-      <c r="E27" s="22">
+      <c r="F27" s="10">
         <v>22768</v>
       </c>
-      <c r="F27" s="23">
+      <c r="G27" s="11">
         <v>81.900000000000006</v>
       </c>
-      <c r="G27" s="22">
+      <c r="H27" s="10">
         <v>1145</v>
       </c>
-      <c r="H27" s="23">
+      <c r="I27" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I27" s="22">
+      <c r="J27" s="10">
         <v>3875</v>
       </c>
-      <c r="J27" s="23">
+      <c r="K27" s="11">
         <v>13.9</v>
       </c>
-      <c r="K27" s="22">
+      <c r="L27" s="10">
         <v>21790</v>
       </c>
-      <c r="L27" s="23">
+      <c r="M27" s="11">
         <v>78.400000000000006</v>
       </c>
-      <c r="M27" s="22">
+      <c r="N27" s="10">
         <v>2163</v>
       </c>
-      <c r="N27" s="23">
+      <c r="O27" s="11">
         <v>7.8</v>
       </c>
-      <c r="O27" s="22">
+      <c r="P27" s="10">
         <v>3835</v>
       </c>
-      <c r="P27" s="23">
+      <c r="Q27" s="11">
         <v>13.8</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="R27" s="11">
         <v>77.2</v>
       </c>
-      <c r="R27" s="23">
+      <c r="S27" s="11">
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="21" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
         <v>16746</v>
       </c>
-      <c r="D28" s="22">
+      <c r="E28" s="10">
         <v>15491</v>
       </c>
-      <c r="E28" s="22">
+      <c r="F28" s="10">
         <v>13313</v>
       </c>
-      <c r="F28" s="23">
+      <c r="G28" s="11">
         <v>85.9</v>
       </c>
-      <c r="G28" s="22">
+      <c r="H28" s="10">
         <v>354</v>
       </c>
-      <c r="H28" s="23">
+      <c r="I28" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I28" s="22">
+      <c r="J28" s="10">
         <v>1825</v>
       </c>
-      <c r="J28" s="23">
+      <c r="K28" s="11">
         <v>11.8</v>
       </c>
-      <c r="K28" s="22">
+      <c r="L28" s="10">
         <v>12907</v>
       </c>
-      <c r="L28" s="23">
+      <c r="M28" s="11">
         <v>83.3</v>
       </c>
-      <c r="M28" s="22">
+      <c r="N28" s="10">
         <v>756</v>
       </c>
-      <c r="N28" s="23">
+      <c r="O28" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O28" s="22">
+      <c r="P28" s="10">
         <v>1828</v>
       </c>
-      <c r="P28" s="23">
+      <c r="Q28" s="11">
         <v>11.8</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="R28" s="11">
         <v>79.5</v>
       </c>
-      <c r="R28" s="23">
+      <c r="S28" s="11">
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+    <row r="29" spans="1:19" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:19" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+    <row r="31" spans="1:19" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:17" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="40" spans="1:18" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="8" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="7" t="s">
+      <c r="R41" s="19"/>
+    </row>
+    <row r="42" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="E42" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="19"/>
+      <c r="G42" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="19"/>
+      <c r="I42" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="17"/>
+      <c r="K42" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="8" t="s">
+      <c r="L42" s="19"/>
+      <c r="M42" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="14" t="s">
+      <c r="N42" s="19"/>
+      <c r="O42" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O42" s="15"/>
-      <c r="P42" s="16" t="s">
+      <c r="P42" s="17"/>
+      <c r="Q42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q42" s="16" t="s">
+      <c r="R42" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="16" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="F43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="G43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="H43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="I43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="J43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="K43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="L43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="M43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M43" s="16" t="s">
+      <c r="N43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N43" s="16" t="s">
+      <c r="O43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O43" s="16" t="s">
+      <c r="P43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P43" s="16" t="s">
+      <c r="Q43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q43" s="16" t="s">
+      <c r="R43" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="9"/>
+      <c r="D44" s="10">
         <v>586</v>
       </c>
-      <c r="D44" s="22">
+      <c r="E44" s="10">
         <v>924</v>
       </c>
-      <c r="E44" s="23">
+      <c r="F44" s="11">
         <v>0.4</v>
       </c>
-      <c r="F44" s="22">
+      <c r="G44" s="10">
         <v>583</v>
       </c>
-      <c r="G44" s="23">
+      <c r="H44" s="11">
         <v>0.3</v>
       </c>
-      <c r="H44" s="22">
+      <c r="I44" s="10">
         <v>685</v>
       </c>
-      <c r="I44" s="23">
+      <c r="J44" s="11">
         <v>0.3</v>
       </c>
-      <c r="J44" s="22">
+      <c r="K44" s="10">
         <v>952</v>
       </c>
-      <c r="K44" s="23">
+      <c r="L44" s="11">
         <v>0.4</v>
       </c>
-      <c r="L44" s="22">
+      <c r="M44" s="10">
         <v>707</v>
       </c>
-      <c r="M44" s="23">
+      <c r="N44" s="11">
         <v>0.3</v>
       </c>
-      <c r="N44" s="22">
+      <c r="O44" s="10">
         <v>677</v>
       </c>
-      <c r="O44" s="23">
+      <c r="P44" s="11">
         <v>0.3</v>
       </c>
-      <c r="P44" s="23">
+      <c r="Q44" s="11">
         <v>0.4</v>
       </c>
-      <c r="Q44" s="23">
+      <c r="R44" s="11">
         <v>0.4</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="21" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="9"/>
+      <c r="D45" s="10">
         <v>262</v>
       </c>
-      <c r="D45" s="22">
+      <c r="E45" s="10">
         <v>179</v>
       </c>
-      <c r="E45" s="23">
+      <c r="F45" s="11">
         <v>2.8</v>
       </c>
-      <c r="F45" s="22">
+      <c r="G45" s="10">
         <v>152</v>
       </c>
-      <c r="G45" s="23">
+      <c r="H45" s="11">
         <v>2.6</v>
       </c>
-      <c r="H45" s="22">
+      <c r="I45" s="10">
         <v>122</v>
       </c>
-      <c r="I45" s="23">
+      <c r="J45" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J45" s="22">
+      <c r="K45" s="10">
         <v>162</v>
       </c>
-      <c r="K45" s="23">
+      <c r="L45" s="11">
         <v>2.7</v>
       </c>
-      <c r="L45" s="22">
+      <c r="M45" s="10">
         <v>172</v>
       </c>
-      <c r="M45" s="23">
+      <c r="N45" s="11">
         <v>2.7</v>
       </c>
-      <c r="N45" s="22">
+      <c r="O45" s="10">
         <v>118</v>
       </c>
-      <c r="O45" s="23">
+      <c r="P45" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P45" s="23">
+      <c r="Q45" s="11">
         <v>1.8</v>
       </c>
-      <c r="Q45" s="23">
+      <c r="R45" s="11">
         <v>1.7</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="21" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" s="14"/>
+      <c r="B46" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="9"/>
+      <c r="D46" s="10">
         <v>421</v>
       </c>
-      <c r="D46" s="22">
+      <c r="E46" s="10">
         <v>303</v>
       </c>
-      <c r="E46" s="23">
+      <c r="F46" s="11">
         <v>1.7</v>
       </c>
-      <c r="F46" s="22">
+      <c r="G46" s="10">
         <v>226</v>
       </c>
-      <c r="G46" s="23">
+      <c r="H46" s="11">
         <v>1.5</v>
       </c>
-      <c r="H46" s="22">
+      <c r="I46" s="10">
         <v>200</v>
       </c>
-      <c r="I46" s="23">
+      <c r="J46" s="11">
         <v>1.4</v>
       </c>
-      <c r="J46" s="22">
+      <c r="K46" s="10">
         <v>275</v>
       </c>
-      <c r="K46" s="23">
+      <c r="L46" s="11">
         <v>1.7</v>
       </c>
-      <c r="L46" s="22">
+      <c r="M46" s="10">
         <v>264</v>
       </c>
-      <c r="M46" s="23">
+      <c r="N46" s="11">
         <v>1.6</v>
       </c>
-      <c r="N46" s="22">
+      <c r="O46" s="10">
         <v>194</v>
       </c>
-      <c r="O46" s="23">
+      <c r="P46" s="11">
         <v>1.4</v>
       </c>
-      <c r="P46" s="23">
+      <c r="Q46" s="11">
         <v>1.5</v>
       </c>
-      <c r="Q46" s="23">
+      <c r="R46" s="11">
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="21" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47" s="14"/>
+      <c r="B47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="9"/>
+      <c r="D47" s="10">
         <v>854</v>
       </c>
-      <c r="D47" s="22">
+      <c r="E47" s="10">
         <v>723</v>
       </c>
-      <c r="E47" s="23">
+      <c r="F47" s="11">
         <v>0.7</v>
       </c>
-      <c r="F47" s="22">
+      <c r="G47" s="10">
         <v>407</v>
       </c>
-      <c r="G47" s="23">
+      <c r="H47" s="11">
         <v>0.6</v>
       </c>
-      <c r="H47" s="22">
+      <c r="I47" s="10">
         <v>424</v>
       </c>
-      <c r="I47" s="23">
+      <c r="J47" s="11">
         <v>0.6</v>
       </c>
-      <c r="J47" s="22">
+      <c r="K47" s="10">
         <v>685</v>
       </c>
-      <c r="K47" s="23">
+      <c r="L47" s="11">
         <v>0.7</v>
       </c>
-      <c r="L47" s="22">
+      <c r="M47" s="10">
         <v>492</v>
       </c>
-      <c r="M47" s="23">
+      <c r="N47" s="11">
         <v>0.6</v>
       </c>
-      <c r="N47" s="22">
+      <c r="O47" s="10">
         <v>414</v>
       </c>
-      <c r="O47" s="23">
+      <c r="P47" s="11">
         <v>0.6</v>
       </c>
-      <c r="P47" s="23">
+      <c r="Q47" s="11">
         <v>0.7</v>
       </c>
-      <c r="Q47" s="23">
+      <c r="R47" s="11">
         <v>0.7</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="21" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" s="14"/>
+      <c r="B48" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="9"/>
+      <c r="D48" s="10">
         <v>848</v>
       </c>
-      <c r="D48" s="22">
+      <c r="E48" s="10">
         <v>769</v>
       </c>
-      <c r="E48" s="23">
+      <c r="F48" s="11">
         <v>0.6</v>
       </c>
-      <c r="F48" s="22">
+      <c r="G48" s="10">
         <v>289</v>
       </c>
-      <c r="G48" s="23">
+      <c r="H48" s="11">
         <v>0.4</v>
       </c>
-      <c r="H48" s="22">
+      <c r="I48" s="10">
         <v>376</v>
       </c>
-      <c r="I48" s="23">
+      <c r="J48" s="11">
         <v>0.5</v>
       </c>
-      <c r="J48" s="22">
+      <c r="K48" s="10">
         <v>744</v>
       </c>
-      <c r="K48" s="23">
+      <c r="L48" s="11">
         <v>0.7</v>
       </c>
-      <c r="L48" s="22">
+      <c r="M48" s="10">
         <v>379</v>
       </c>
-      <c r="M48" s="23">
+      <c r="N48" s="11">
         <v>0.5</v>
       </c>
-      <c r="N48" s="22">
+      <c r="O48" s="10">
         <v>373</v>
       </c>
-      <c r="O48" s="23">
+      <c r="P48" s="11">
         <v>0.5</v>
       </c>
-      <c r="P48" s="23">
+      <c r="Q48" s="11">
         <v>0.6</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="R48" s="11">
         <v>0.7</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="21" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" s="14"/>
+      <c r="B49" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="9"/>
+      <c r="D49" s="10">
         <v>778</v>
       </c>
-      <c r="D49" s="22">
+      <c r="E49" s="10">
         <v>719</v>
       </c>
-      <c r="E49" s="23">
+      <c r="F49" s="11">
         <v>0.7</v>
       </c>
-      <c r="F49" s="22">
+      <c r="G49" s="10">
         <v>182</v>
       </c>
-      <c r="G49" s="23">
+      <c r="H49" s="11">
         <v>0.3</v>
       </c>
-      <c r="H49" s="22">
+      <c r="I49" s="10">
         <v>322</v>
       </c>
-      <c r="I49" s="23">
+      <c r="J49" s="11">
         <v>0.6</v>
       </c>
-      <c r="J49" s="22">
+      <c r="K49" s="10">
         <v>706</v>
       </c>
-      <c r="K49" s="23">
+      <c r="L49" s="11">
         <v>0.7</v>
       </c>
-      <c r="L49" s="22">
+      <c r="M49" s="10">
         <v>248</v>
       </c>
-      <c r="M49" s="23">
+      <c r="N49" s="11">
         <v>0.5</v>
       </c>
-      <c r="N49" s="22">
+      <c r="O49" s="10">
         <v>319</v>
       </c>
-      <c r="O49" s="23">
+      <c r="P49" s="11">
         <v>0.6</v>
       </c>
-      <c r="P49" s="23">
+      <c r="Q49" s="11">
         <v>0.7</v>
       </c>
-      <c r="Q49" s="23">
+      <c r="R49" s="11">
         <v>0.7</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="21" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" s="15"/>
+      <c r="B50" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="9"/>
+      <c r="D50" s="10">
         <v>611</v>
       </c>
-      <c r="D50" s="22">
+      <c r="E50" s="10">
         <v>569</v>
       </c>
-      <c r="E50" s="23">
+      <c r="F50" s="11">
         <v>0.8</v>
       </c>
-      <c r="F50" s="22">
+      <c r="G50" s="10">
         <v>103</v>
       </c>
-      <c r="G50" s="23">
+      <c r="H50" s="11">
         <v>0.4</v>
       </c>
-      <c r="H50" s="22">
+      <c r="I50" s="10">
         <v>226</v>
       </c>
-      <c r="I50" s="23">
+      <c r="J50" s="11">
         <v>0.7</v>
       </c>
-      <c r="J50" s="22">
+      <c r="K50" s="10">
         <v>563</v>
       </c>
-      <c r="K50" s="23">
+      <c r="L50" s="11">
         <v>0.8</v>
       </c>
-      <c r="L50" s="22">
+      <c r="M50" s="10">
         <v>142</v>
       </c>
-      <c r="M50" s="23">
+      <c r="N50" s="11">
         <v>0.5</v>
       </c>
-      <c r="N50" s="22">
+      <c r="O50" s="10">
         <v>225</v>
       </c>
-      <c r="O50" s="23">
+      <c r="P50" s="11">
         <v>0.7</v>
       </c>
-      <c r="P50" s="23">
+      <c r="Q50" s="11">
         <v>0.9</v>
       </c>
-      <c r="Q50" s="23">
+      <c r="R50" s="11">
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="9"/>
+      <c r="D51" s="10">
         <v>962</v>
       </c>
-      <c r="D51" s="22">
+      <c r="E51" s="10">
         <v>897</v>
       </c>
-      <c r="E51" s="23">
+      <c r="F51" s="11">
         <v>0.5</v>
       </c>
-      <c r="F51" s="22">
+      <c r="G51" s="10">
         <v>436</v>
       </c>
-      <c r="G51" s="23">
+      <c r="H51" s="11">
         <v>0.4</v>
       </c>
-      <c r="H51" s="22">
+      <c r="I51" s="10">
         <v>501</v>
       </c>
-      <c r="I51" s="23">
+      <c r="J51" s="11">
         <v>0.4</v>
       </c>
-      <c r="J51" s="22">
+      <c r="K51" s="10">
         <v>873</v>
       </c>
-      <c r="K51" s="23">
+      <c r="L51" s="11">
         <v>0.5</v>
       </c>
-      <c r="L51" s="22">
+      <c r="M51" s="10">
         <v>533</v>
       </c>
-      <c r="M51" s="23">
+      <c r="N51" s="11">
         <v>0.4</v>
       </c>
-      <c r="N51" s="22">
+      <c r="O51" s="10">
         <v>493</v>
       </c>
-      <c r="O51" s="23">
+      <c r="P51" s="11">
         <v>0.4</v>
       </c>
-      <c r="P51" s="23">
+      <c r="Q51" s="11">
         <v>0.5</v>
       </c>
-      <c r="Q51" s="23">
+      <c r="R51" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="21" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" s="14"/>
+      <c r="B52" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="9"/>
+      <c r="D52" s="10">
         <v>187</v>
       </c>
-      <c r="D52" s="22">
+      <c r="E52" s="10">
         <v>124</v>
       </c>
-      <c r="E52" s="23">
+      <c r="F52" s="11">
         <v>3.9</v>
       </c>
-      <c r="F52" s="22">
+      <c r="G52" s="10">
         <v>108</v>
       </c>
-      <c r="G52" s="23">
+      <c r="H52" s="11">
         <v>3.7</v>
       </c>
-      <c r="H52" s="22">
+      <c r="I52" s="10">
         <v>89</v>
       </c>
-      <c r="I52" s="23">
+      <c r="J52" s="11">
         <v>3.3</v>
       </c>
-      <c r="J52" s="22">
+      <c r="K52" s="10">
         <v>114</v>
       </c>
-      <c r="K52" s="23">
+      <c r="L52" s="11">
         <v>3.8</v>
       </c>
-      <c r="L52" s="22">
+      <c r="M52" s="10">
         <v>121</v>
       </c>
-      <c r="M52" s="23">
+      <c r="N52" s="11">
         <v>3.9</v>
       </c>
-      <c r="N52" s="22">
+      <c r="O52" s="10">
         <v>86</v>
       </c>
-      <c r="O52" s="23">
+      <c r="P52" s="11">
         <v>3.2</v>
       </c>
-      <c r="P52" s="23">
+      <c r="Q52" s="11">
         <v>2.5</v>
       </c>
-      <c r="Q52" s="23">
+      <c r="R52" s="11">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="21" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53" s="14"/>
+      <c r="B53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="9"/>
+      <c r="D53" s="10">
         <v>311</v>
       </c>
-      <c r="D53" s="22">
+      <c r="E53" s="10">
         <v>217</v>
       </c>
-      <c r="E53" s="23">
+      <c r="F53" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F53" s="22">
+      <c r="G53" s="10">
         <v>173</v>
       </c>
-      <c r="G53" s="23">
+      <c r="H53" s="11">
         <v>2.1</v>
       </c>
-      <c r="H53" s="22">
+      <c r="I53" s="10">
         <v>146</v>
       </c>
-      <c r="I53" s="23">
+      <c r="J53" s="11">
         <v>1.9</v>
       </c>
-      <c r="J53" s="22">
+      <c r="K53" s="10">
         <v>196</v>
       </c>
-      <c r="K53" s="23">
+      <c r="L53" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L53" s="22">
+      <c r="M53" s="10">
         <v>200</v>
       </c>
-      <c r="M53" s="23">
+      <c r="N53" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N53" s="22">
+      <c r="O53" s="10">
         <v>141</v>
       </c>
-      <c r="O53" s="23">
+      <c r="P53" s="11">
         <v>1.9</v>
       </c>
-      <c r="P53" s="23">
+      <c r="Q53" s="11">
         <v>2.1</v>
       </c>
-      <c r="Q53" s="23">
+      <c r="R53" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="21" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" s="14"/>
+      <c r="B54" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="9"/>
+      <c r="D54" s="10">
         <v>661</v>
       </c>
-      <c r="D54" s="22">
+      <c r="E54" s="10">
         <v>534</v>
       </c>
-      <c r="E54" s="23">
+      <c r="F54" s="11">
         <v>1</v>
       </c>
-      <c r="F54" s="22">
+      <c r="G54" s="10">
         <v>308</v>
       </c>
-      <c r="G54" s="23">
+      <c r="H54" s="11">
         <v>0.8</v>
       </c>
-      <c r="H54" s="22">
+      <c r="I54" s="10">
         <v>307</v>
       </c>
-      <c r="I54" s="23">
+      <c r="J54" s="11">
         <v>0.8</v>
       </c>
-      <c r="J54" s="22">
+      <c r="K54" s="10">
         <v>500</v>
       </c>
-      <c r="K54" s="23">
+      <c r="L54" s="11">
         <v>1</v>
       </c>
-      <c r="L54" s="22">
+      <c r="M54" s="10">
         <v>370</v>
       </c>
-      <c r="M54" s="23">
+      <c r="N54" s="11">
         <v>0.9</v>
       </c>
-      <c r="N54" s="22">
+      <c r="O54" s="10">
         <v>301</v>
       </c>
-      <c r="O54" s="23">
+      <c r="P54" s="11">
         <v>0.8</v>
       </c>
-      <c r="P54" s="23">
+      <c r="Q54" s="11">
         <v>1</v>
       </c>
-      <c r="Q54" s="23">
+      <c r="R54" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="21" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A55" s="14"/>
+      <c r="B55" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="9"/>
+      <c r="D55" s="10">
         <v>629</v>
       </c>
-      <c r="D55" s="22">
+      <c r="E55" s="10">
         <v>556</v>
       </c>
-      <c r="E55" s="23">
+      <c r="F55" s="11">
         <v>0.9</v>
       </c>
-      <c r="F55" s="22">
+      <c r="G55" s="10">
         <v>198</v>
       </c>
-      <c r="G55" s="23">
+      <c r="H55" s="11">
         <v>0.6</v>
       </c>
-      <c r="H55" s="22">
+      <c r="I55" s="10">
         <v>261</v>
       </c>
-      <c r="I55" s="23">
+      <c r="J55" s="11">
         <v>0.8</v>
       </c>
-      <c r="J55" s="22">
+      <c r="K55" s="10">
         <v>533</v>
       </c>
-      <c r="K55" s="23">
+      <c r="L55" s="11">
         <v>1</v>
       </c>
-      <c r="L55" s="22">
+      <c r="M55" s="10">
         <v>265</v>
       </c>
-      <c r="M55" s="23">
+      <c r="N55" s="11">
         <v>0.8</v>
       </c>
-      <c r="N55" s="22">
+      <c r="O55" s="10">
         <v>258</v>
       </c>
-      <c r="O55" s="23">
+      <c r="P55" s="11">
         <v>0.8</v>
       </c>
-      <c r="P55" s="23">
+      <c r="Q55" s="11">
         <v>1</v>
       </c>
-      <c r="Q55" s="23">
+      <c r="R55" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="21" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56" s="14"/>
+      <c r="B56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="9"/>
+      <c r="D56" s="10">
         <v>564</v>
       </c>
-      <c r="D56" s="22">
+      <c r="E56" s="10">
         <v>513</v>
       </c>
-      <c r="E56" s="23">
+      <c r="F56" s="11">
         <v>1</v>
       </c>
-      <c r="F56" s="22">
+      <c r="G56" s="10">
         <v>128</v>
       </c>
-      <c r="G56" s="23">
+      <c r="H56" s="11">
         <v>0.5</v>
       </c>
-      <c r="H56" s="22">
+      <c r="I56" s="10">
         <v>221</v>
       </c>
-      <c r="I56" s="23">
+      <c r="J56" s="11">
         <v>0.9</v>
       </c>
-      <c r="J56" s="22">
+      <c r="K56" s="10">
         <v>502</v>
       </c>
-      <c r="K56" s="23">
+      <c r="L56" s="11">
         <v>1</v>
       </c>
-      <c r="L56" s="22">
+      <c r="M56" s="10">
         <v>175</v>
       </c>
-      <c r="M56" s="23">
+      <c r="N56" s="11">
         <v>0.7</v>
       </c>
-      <c r="N56" s="22">
+      <c r="O56" s="10">
         <v>219</v>
       </c>
-      <c r="O56" s="23">
+      <c r="P56" s="11">
         <v>0.9</v>
       </c>
-      <c r="P56" s="23">
+      <c r="Q56" s="11">
         <v>1</v>
       </c>
-      <c r="Q56" s="23">
+      <c r="R56" s="11">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="21" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A57" s="15"/>
+      <c r="B57" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="9"/>
+      <c r="D57" s="10">
         <v>429</v>
       </c>
-      <c r="D57" s="22">
+      <c r="E57" s="10">
         <v>395</v>
       </c>
-      <c r="E57" s="23">
+      <c r="F57" s="11">
         <v>1.2</v>
       </c>
-      <c r="F57" s="22">
+      <c r="G57" s="10">
         <v>73</v>
       </c>
-      <c r="G57" s="23">
+      <c r="H57" s="11">
         <v>0.5</v>
       </c>
-      <c r="H57" s="22">
+      <c r="I57" s="10">
         <v>157</v>
       </c>
-      <c r="I57" s="23">
+      <c r="J57" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J57" s="22">
+      <c r="K57" s="10">
         <v>391</v>
       </c>
-      <c r="K57" s="23">
+      <c r="L57" s="11">
         <v>1.3</v>
       </c>
-      <c r="L57" s="22">
+      <c r="M57" s="10">
         <v>96</v>
       </c>
-      <c r="M57" s="23">
+      <c r="N57" s="11">
         <v>0.7</v>
       </c>
-      <c r="N57" s="22">
+      <c r="O57" s="10">
         <v>156</v>
       </c>
-      <c r="O57" s="23">
+      <c r="P57" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P57" s="23">
+      <c r="Q57" s="11">
         <v>1.3</v>
       </c>
-      <c r="Q57" s="23">
+      <c r="R57" s="11">
         <v>1.4</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A58" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="9"/>
+      <c r="D58" s="10">
         <v>969</v>
       </c>
-      <c r="D58" s="22">
+      <c r="E58" s="10">
         <v>924</v>
       </c>
-      <c r="E58" s="23">
+      <c r="F58" s="11">
         <v>0.5</v>
       </c>
-      <c r="F58" s="22">
+      <c r="G58" s="10">
         <v>411</v>
       </c>
-      <c r="G58" s="23">
+      <c r="H58" s="11">
         <v>0.3</v>
       </c>
-      <c r="H58" s="22">
+      <c r="I58" s="10">
         <v>508</v>
       </c>
-      <c r="I58" s="23">
+      <c r="J58" s="11">
         <v>0.4</v>
       </c>
-      <c r="J58" s="22">
+      <c r="K58" s="10">
         <v>905</v>
       </c>
-      <c r="K58" s="23">
+      <c r="L58" s="11">
         <v>0.5</v>
       </c>
-      <c r="L58" s="22">
+      <c r="M58" s="10">
         <v>513</v>
       </c>
-      <c r="M58" s="23">
+      <c r="N58" s="11">
         <v>0.4</v>
       </c>
-      <c r="N58" s="22">
+      <c r="O58" s="10">
         <v>502</v>
       </c>
-      <c r="O58" s="23">
+      <c r="P58" s="11">
         <v>0.4</v>
       </c>
-      <c r="P58" s="23">
+      <c r="Q58" s="11">
         <v>0.5</v>
       </c>
-      <c r="Q58" s="23">
+      <c r="R58" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="21" t="s">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59" s="14"/>
+      <c r="B59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="9"/>
+      <c r="D59" s="10">
         <v>186</v>
       </c>
-      <c r="D59" s="22">
+      <c r="E59" s="10">
         <v>129</v>
       </c>
-      <c r="E59" s="23">
+      <c r="F59" s="11">
         <v>3.9</v>
       </c>
-      <c r="F59" s="22">
+      <c r="G59" s="10">
         <v>106</v>
       </c>
-      <c r="G59" s="23">
+      <c r="H59" s="11">
         <v>3.7</v>
       </c>
-      <c r="H59" s="22">
+      <c r="I59" s="10">
         <v>83</v>
       </c>
-      <c r="I59" s="23">
+      <c r="J59" s="11">
         <v>3.1</v>
       </c>
-      <c r="J59" s="22">
+      <c r="K59" s="10">
         <v>115</v>
       </c>
-      <c r="K59" s="23">
+      <c r="L59" s="11">
         <v>3.8</v>
       </c>
-      <c r="L59" s="22">
+      <c r="M59" s="10">
         <v>122</v>
       </c>
-      <c r="M59" s="23">
+      <c r="N59" s="11">
         <v>3.9</v>
       </c>
-      <c r="N59" s="22">
+      <c r="O59" s="10">
         <v>81</v>
       </c>
-      <c r="O59" s="23">
+      <c r="P59" s="11">
         <v>3.1</v>
       </c>
-      <c r="P59" s="23">
+      <c r="Q59" s="11">
         <v>2.6</v>
       </c>
-      <c r="Q59" s="23">
+      <c r="R59" s="11">
         <v>2.4</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="21" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A60" s="14"/>
+      <c r="B60" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="9"/>
+      <c r="D60" s="10">
         <v>292</v>
       </c>
-      <c r="D60" s="22">
+      <c r="E60" s="10">
         <v>214</v>
       </c>
-      <c r="E60" s="23">
+      <c r="F60" s="11">
         <v>2.5</v>
       </c>
-      <c r="F60" s="22">
+      <c r="G60" s="10">
         <v>147</v>
       </c>
-      <c r="G60" s="23">
+      <c r="H60" s="11">
         <v>2.1</v>
       </c>
-      <c r="H60" s="22">
+      <c r="I60" s="10">
         <v>138</v>
       </c>
-      <c r="I60" s="23">
+      <c r="J60" s="11">
         <v>2.1</v>
       </c>
-      <c r="J60" s="22">
+      <c r="K60" s="10">
         <v>195</v>
       </c>
-      <c r="K60" s="23">
+      <c r="L60" s="11">
         <v>2.5</v>
       </c>
-      <c r="L60" s="22">
+      <c r="M60" s="10">
         <v>175</v>
       </c>
-      <c r="M60" s="23">
+      <c r="N60" s="11">
         <v>2.4</v>
       </c>
-      <c r="N60" s="22">
+      <c r="O60" s="10">
         <v>134</v>
       </c>
-      <c r="O60" s="23">
+      <c r="P60" s="11">
         <v>2</v>
       </c>
-      <c r="P60" s="23">
+      <c r="Q60" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q60" s="23">
+      <c r="R60" s="11">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="21" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A61" s="14"/>
+      <c r="B61" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="9"/>
+      <c r="D61" s="10">
         <v>650</v>
       </c>
-      <c r="D61" s="22">
+      <c r="E61" s="10">
         <v>538</v>
       </c>
-      <c r="E61" s="23">
+      <c r="F61" s="11">
         <v>1</v>
       </c>
-      <c r="F61" s="22">
+      <c r="G61" s="10">
         <v>273</v>
       </c>
-      <c r="G61" s="23">
+      <c r="H61" s="11">
         <v>0.8</v>
       </c>
-      <c r="H61" s="22">
+      <c r="I61" s="10">
         <v>300</v>
       </c>
-      <c r="I61" s="23">
+      <c r="J61" s="11">
         <v>0.8</v>
       </c>
-      <c r="J61" s="22">
+      <c r="K61" s="10">
         <v>509</v>
       </c>
-      <c r="K61" s="23">
+      <c r="L61" s="11">
         <v>1</v>
       </c>
-      <c r="L61" s="22">
+      <c r="M61" s="10">
         <v>338</v>
       </c>
-      <c r="M61" s="23">
+      <c r="N61" s="11">
         <v>0.9</v>
       </c>
-      <c r="N61" s="22">
+      <c r="O61" s="10">
         <v>292</v>
       </c>
-      <c r="O61" s="23">
+      <c r="P61" s="11">
         <v>0.8</v>
       </c>
-      <c r="P61" s="23">
+      <c r="Q61" s="11">
         <v>1</v>
       </c>
-      <c r="Q61" s="23">
+      <c r="R61" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="21" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A62" s="14"/>
+      <c r="B62" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="9"/>
+      <c r="D62" s="10">
         <v>669</v>
       </c>
-      <c r="D62" s="22">
+      <c r="E62" s="10">
         <v>595</v>
       </c>
-      <c r="E62" s="23">
+      <c r="F62" s="11">
         <v>0.9</v>
       </c>
-      <c r="F62" s="22">
+      <c r="G62" s="10">
         <v>213</v>
       </c>
-      <c r="G62" s="23">
+      <c r="H62" s="11">
         <v>0.6</v>
       </c>
-      <c r="H62" s="22">
+      <c r="I62" s="10">
         <v>275</v>
       </c>
-      <c r="I62" s="23">
+      <c r="J62" s="11">
         <v>0.7</v>
       </c>
-      <c r="J62" s="22">
+      <c r="K62" s="10">
         <v>573</v>
       </c>
-      <c r="K62" s="23">
+      <c r="L62" s="11">
         <v>0.9</v>
       </c>
-      <c r="L62" s="22">
+      <c r="M62" s="10">
         <v>276</v>
       </c>
-      <c r="M62" s="23">
+      <c r="N62" s="11">
         <v>0.7</v>
       </c>
-      <c r="N62" s="22">
+      <c r="O62" s="10">
         <v>274</v>
       </c>
-      <c r="O62" s="23">
+      <c r="P62" s="11">
         <v>0.7</v>
       </c>
-      <c r="P62" s="23">
+      <c r="Q62" s="11">
         <v>0.9</v>
       </c>
-      <c r="Q62" s="23">
+      <c r="R62" s="11">
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="21" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A63" s="14"/>
+      <c r="B63" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C63" s="9"/>
+      <c r="D63" s="10">
         <v>602</v>
       </c>
-      <c r="D63" s="22">
+      <c r="E63" s="10">
         <v>551</v>
       </c>
-      <c r="E63" s="23">
+      <c r="F63" s="11">
         <v>0.9</v>
       </c>
-      <c r="F63" s="22">
+      <c r="G63" s="10">
         <v>129</v>
       </c>
-      <c r="G63" s="23">
+      <c r="H63" s="11">
         <v>0.5</v>
       </c>
-      <c r="H63" s="22">
+      <c r="I63" s="10">
         <v>236</v>
       </c>
-      <c r="I63" s="23">
+      <c r="J63" s="11">
         <v>0.8</v>
       </c>
-      <c r="J63" s="22">
+      <c r="K63" s="10">
         <v>540</v>
       </c>
-      <c r="K63" s="23">
+      <c r="L63" s="11">
         <v>0.9</v>
       </c>
-      <c r="L63" s="22">
+      <c r="M63" s="10">
         <v>177</v>
       </c>
-      <c r="M63" s="23">
+      <c r="N63" s="11">
         <v>0.6</v>
       </c>
-      <c r="N63" s="22">
+      <c r="O63" s="10">
         <v>235</v>
       </c>
-      <c r="O63" s="23">
+      <c r="P63" s="11">
         <v>0.8</v>
       </c>
-      <c r="P63" s="23">
+      <c r="Q63" s="11">
         <v>0.9</v>
       </c>
-      <c r="Q63" s="23">
+      <c r="R63" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="21" t="s">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A64" s="15"/>
+      <c r="B64" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="22">
+      <c r="C64" s="9"/>
+      <c r="D64" s="10">
         <v>462</v>
       </c>
-      <c r="D64" s="22">
+      <c r="E64" s="10">
         <v>430</v>
       </c>
-      <c r="E64" s="23">
+      <c r="F64" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F64" s="22">
+      <c r="G64" s="10">
         <v>72</v>
       </c>
-      <c r="G64" s="23">
+      <c r="H64" s="11">
         <v>0.5</v>
       </c>
-      <c r="H64" s="22">
+      <c r="I64" s="10">
         <v>163</v>
       </c>
-      <c r="I64" s="23">
+      <c r="J64" s="11">
         <v>1</v>
       </c>
-      <c r="J64" s="22">
+      <c r="K64" s="10">
         <v>424</v>
       </c>
-      <c r="K64" s="23">
+      <c r="L64" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L64" s="22">
+      <c r="M64" s="10">
         <v>105</v>
       </c>
-      <c r="M64" s="23">
+      <c r="N64" s="11">
         <v>0.7</v>
       </c>
-      <c r="N64" s="22">
+      <c r="O64" s="10">
         <v>163</v>
       </c>
-      <c r="O64" s="23">
+      <c r="P64" s="11">
         <v>1</v>
       </c>
-      <c r="P64" s="23">
+      <c r="Q64" s="11">
         <v>1.2</v>
       </c>
-      <c r="Q64" s="23">
+      <c r="R64" s="11">
         <v>1.2</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:1" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
+    <row r="65" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:1" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:1" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+    <row r="67" spans="1:1" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:1" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:1" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:1" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A41:B43"/>
-    <mergeCell ref="C41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="A5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A51:A57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="51" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3373,4 +3551,1548 @@
     <brk id="37" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DF4A6B-9986-445D-86E0-9393EC998EDE}">
+  <dimension ref="B2:S16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:S4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="31"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="19"/>
+    </row>
+    <row r="3" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="32"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="35"/>
+      <c r="F3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="2:19" ht="87" x14ac:dyDescent="0.35">
+      <c r="B4" s="33"/>
+      <c r="C4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4358</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2403</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1050</v>
+      </c>
+      <c r="G5" s="11">
+        <v>43.7</v>
+      </c>
+      <c r="H5" s="10">
+        <v>806</v>
+      </c>
+      <c r="I5" s="11">
+        <v>33.5</v>
+      </c>
+      <c r="J5" s="10">
+        <v>547</v>
+      </c>
+      <c r="K5" s="11">
+        <v>22.8</v>
+      </c>
+      <c r="L5" s="10">
+        <v>889</v>
+      </c>
+      <c r="M5" s="11">
+        <v>37</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1007</v>
+      </c>
+      <c r="O5" s="11">
+        <v>41.9</v>
+      </c>
+      <c r="P5" s="10">
+        <v>507</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>21.1</v>
+      </c>
+      <c r="R5" s="11">
+        <v>24.1</v>
+      </c>
+      <c r="S5" s="11">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="58" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>7971</v>
+      </c>
+      <c r="E6" s="10">
+        <v>6770</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3255</v>
+      </c>
+      <c r="G6" s="11">
+        <v>48.1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2056</v>
+      </c>
+      <c r="I6" s="11">
+        <v>30.4</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1459</v>
+      </c>
+      <c r="K6" s="11">
+        <v>21.5</v>
+      </c>
+      <c r="L6" s="10">
+        <v>2663</v>
+      </c>
+      <c r="M6" s="11">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="N6" s="10">
+        <v>2750</v>
+      </c>
+      <c r="O6" s="11">
+        <v>40.6</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1357</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>20</v>
+      </c>
+      <c r="R6" s="11">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="S6" s="11">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>37483</v>
+      </c>
+      <c r="E7" s="10">
+        <v>34460</v>
+      </c>
+      <c r="F7" s="10">
+        <v>21214</v>
+      </c>
+      <c r="G7" s="11">
+        <v>61.6</v>
+      </c>
+      <c r="H7" s="10">
+        <v>6638</v>
+      </c>
+      <c r="I7" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="J7" s="10">
+        <v>6609</v>
+      </c>
+      <c r="K7" s="11">
+        <v>19.2</v>
+      </c>
+      <c r="L7" s="10">
+        <v>18374</v>
+      </c>
+      <c r="M7" s="11">
+        <v>53.3</v>
+      </c>
+      <c r="N7" s="10">
+        <v>9738</v>
+      </c>
+      <c r="O7" s="11">
+        <v>28.3</v>
+      </c>
+      <c r="P7" s="10">
+        <v>6348</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="R7" s="11">
+        <v>56.6</v>
+      </c>
+      <c r="S7" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>31870</v>
+      </c>
+      <c r="E8" s="10">
+        <v>30656</v>
+      </c>
+      <c r="F8" s="10">
+        <v>23209</v>
+      </c>
+      <c r="G8" s="11">
+        <v>75.7</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2701</v>
+      </c>
+      <c r="I8" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J8" s="10">
+        <v>4746</v>
+      </c>
+      <c r="K8" s="11">
+        <v>15.5</v>
+      </c>
+      <c r="L8" s="10">
+        <v>21113</v>
+      </c>
+      <c r="M8" s="11">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="N8" s="10">
+        <v>4901</v>
+      </c>
+      <c r="O8" s="11">
+        <v>16</v>
+      </c>
+      <c r="P8" s="10">
+        <v>4642</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>15.1</v>
+      </c>
+      <c r="R8" s="11">
+        <v>72.8</v>
+      </c>
+      <c r="S8" s="11">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>25593</v>
+      </c>
+      <c r="E9" s="10">
+        <v>23974</v>
+      </c>
+      <c r="F9" s="10">
+        <v>19456</v>
+      </c>
+      <c r="G9" s="11">
+        <v>81.2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1128</v>
+      </c>
+      <c r="I9" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3390</v>
+      </c>
+      <c r="K9" s="11">
+        <v>14.1</v>
+      </c>
+      <c r="L9" s="10">
+        <v>18521</v>
+      </c>
+      <c r="M9" s="11">
+        <v>77.3</v>
+      </c>
+      <c r="N9" s="10">
+        <v>2121</v>
+      </c>
+      <c r="O9" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P9" s="10">
+        <v>3332</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>13.9</v>
+      </c>
+      <c r="R9" s="11">
+        <v>76</v>
+      </c>
+      <c r="S9" s="11">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>14596</v>
+      </c>
+      <c r="E10" s="10">
+        <v>13222</v>
+      </c>
+      <c r="F10" s="10">
+        <v>11156</v>
+      </c>
+      <c r="G10" s="11">
+        <v>84.4</v>
+      </c>
+      <c r="H10" s="10">
+        <v>369</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1697</v>
+      </c>
+      <c r="K10" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="L10" s="10">
+        <v>10914</v>
+      </c>
+      <c r="M10" s="11">
+        <v>82.5</v>
+      </c>
+      <c r="N10" s="10">
+        <v>630</v>
+      </c>
+      <c r="O10" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1677</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>12.7</v>
+      </c>
+      <c r="R10" s="11">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="S10" s="11">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>4327</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2389</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1146</v>
+      </c>
+      <c r="G11" s="11">
+        <v>48</v>
+      </c>
+      <c r="H11" s="10">
+        <v>772</v>
+      </c>
+      <c r="I11" s="11">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J11" s="10">
+        <v>470</v>
+      </c>
+      <c r="K11" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="L11" s="10">
+        <v>912</v>
+      </c>
+      <c r="M11" s="11">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="N11" s="10">
+        <v>1028</v>
+      </c>
+      <c r="O11" s="11">
+        <v>43</v>
+      </c>
+      <c r="P11" s="10">
+        <v>449</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="R11" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="S11" s="11">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="58" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>7054</v>
+      </c>
+      <c r="E12" s="10">
+        <v>5968</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3179</v>
+      </c>
+      <c r="G12" s="11">
+        <v>53.3</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1478</v>
+      </c>
+      <c r="I12" s="11">
+        <v>24.8</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1311</v>
+      </c>
+      <c r="K12" s="11">
+        <v>22</v>
+      </c>
+      <c r="L12" s="10">
+        <v>2620</v>
+      </c>
+      <c r="M12" s="11">
+        <v>43.9</v>
+      </c>
+      <c r="N12" s="10">
+        <v>2120</v>
+      </c>
+      <c r="O12" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="P12" s="10">
+        <v>1228</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="R12" s="11">
+        <v>45.1</v>
+      </c>
+      <c r="S12" s="11">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>35846</v>
+      </c>
+      <c r="E13" s="10">
+        <v>33079</v>
+      </c>
+      <c r="F13" s="10">
+        <v>21587</v>
+      </c>
+      <c r="G13" s="11">
+        <v>65.3</v>
+      </c>
+      <c r="H13" s="10">
+        <v>5192</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15.7</v>
+      </c>
+      <c r="J13" s="10">
+        <v>6299</v>
+      </c>
+      <c r="K13" s="11">
+        <v>19</v>
+      </c>
+      <c r="L13" s="10">
+        <v>19082</v>
+      </c>
+      <c r="M13" s="11">
+        <v>57.7</v>
+      </c>
+      <c r="N13" s="10">
+        <v>8030</v>
+      </c>
+      <c r="O13" s="11">
+        <v>24.3</v>
+      </c>
+      <c r="P13" s="10">
+        <v>5966</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>18</v>
+      </c>
+      <c r="R13" s="11">
+        <v>60.2</v>
+      </c>
+      <c r="S13" s="11">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>36928</v>
+      </c>
+      <c r="E14" s="10">
+        <v>35393</v>
+      </c>
+      <c r="F14" s="10">
+        <v>26975</v>
+      </c>
+      <c r="G14" s="11">
+        <v>76.2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>3143</v>
+      </c>
+      <c r="I14" s="11">
+        <v>8.9</v>
+      </c>
+      <c r="J14" s="10">
+        <v>5275</v>
+      </c>
+      <c r="K14" s="11">
+        <v>14.9</v>
+      </c>
+      <c r="L14" s="10">
+        <v>24842</v>
+      </c>
+      <c r="M14" s="11">
+        <v>70.2</v>
+      </c>
+      <c r="N14" s="10">
+        <v>5316</v>
+      </c>
+      <c r="O14" s="11">
+        <v>15</v>
+      </c>
+      <c r="P14" s="10">
+        <v>5234</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>14.8</v>
+      </c>
+      <c r="R14" s="11">
+        <v>73</v>
+      </c>
+      <c r="S14" s="11">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>29504</v>
+      </c>
+      <c r="E15" s="10">
+        <v>27788</v>
+      </c>
+      <c r="F15" s="10">
+        <v>22768</v>
+      </c>
+      <c r="G15" s="11">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1145</v>
+      </c>
+      <c r="I15" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J15" s="10">
+        <v>3875</v>
+      </c>
+      <c r="K15" s="11">
+        <v>13.9</v>
+      </c>
+      <c r="L15" s="10">
+        <v>21790</v>
+      </c>
+      <c r="M15" s="11">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="N15" s="10">
+        <v>2163</v>
+      </c>
+      <c r="O15" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="P15" s="10">
+        <v>3835</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="R15" s="11">
+        <v>77.2</v>
+      </c>
+      <c r="S15" s="11">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>16746</v>
+      </c>
+      <c r="E16" s="10">
+        <v>15491</v>
+      </c>
+      <c r="F16" s="10">
+        <v>13313</v>
+      </c>
+      <c r="G16" s="11">
+        <v>85.9</v>
+      </c>
+      <c r="H16" s="10">
+        <v>354</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1825</v>
+      </c>
+      <c r="K16" s="11">
+        <v>11.8</v>
+      </c>
+      <c r="L16" s="10">
+        <v>12907</v>
+      </c>
+      <c r="M16" s="11">
+        <v>83.3</v>
+      </c>
+      <c r="N16" s="10">
+        <v>756</v>
+      </c>
+      <c r="O16" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P16" s="10">
+        <v>1828</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>11.8</v>
+      </c>
+      <c r="R16" s="11">
+        <v>79.5</v>
+      </c>
+      <c r="S16" s="11">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF29172-BAEA-4055-9B51-B8F706E17842}">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1" s="33"/>
+      <c r="B1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4358</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2403</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1050</v>
+      </c>
+      <c r="F2" s="11">
+        <v>43.7</v>
+      </c>
+      <c r="G2" s="10">
+        <v>806</v>
+      </c>
+      <c r="H2" s="11">
+        <v>33.5</v>
+      </c>
+      <c r="I2" s="10">
+        <v>547</v>
+      </c>
+      <c r="J2" s="11">
+        <v>22.8</v>
+      </c>
+      <c r="K2" s="10">
+        <v>889</v>
+      </c>
+      <c r="L2" s="11">
+        <v>37</v>
+      </c>
+      <c r="M2" s="10">
+        <v>1007</v>
+      </c>
+      <c r="N2" s="11">
+        <v>41.9</v>
+      </c>
+      <c r="O2" s="10">
+        <v>507</v>
+      </c>
+      <c r="P2" s="11">
+        <v>21.1</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>24.1</v>
+      </c>
+      <c r="R2" s="11">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>7971</v>
+      </c>
+      <c r="D3" s="10">
+        <v>6770</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3255</v>
+      </c>
+      <c r="F3" s="11">
+        <v>48.1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2056</v>
+      </c>
+      <c r="H3" s="11">
+        <v>30.4</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1459</v>
+      </c>
+      <c r="J3" s="11">
+        <v>21.5</v>
+      </c>
+      <c r="K3" s="10">
+        <v>2663</v>
+      </c>
+      <c r="L3" s="11">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="M3" s="10">
+        <v>2750</v>
+      </c>
+      <c r="N3" s="11">
+        <v>40.6</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1357</v>
+      </c>
+      <c r="P3" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="R3" s="11">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>37483</v>
+      </c>
+      <c r="D4" s="10">
+        <v>34460</v>
+      </c>
+      <c r="E4" s="10">
+        <v>21214</v>
+      </c>
+      <c r="F4" s="11">
+        <v>61.6</v>
+      </c>
+      <c r="G4" s="10">
+        <v>6638</v>
+      </c>
+      <c r="H4" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="I4" s="10">
+        <v>6609</v>
+      </c>
+      <c r="J4" s="11">
+        <v>19.2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>18374</v>
+      </c>
+      <c r="L4" s="11">
+        <v>53.3</v>
+      </c>
+      <c r="M4" s="10">
+        <v>9738</v>
+      </c>
+      <c r="N4" s="11">
+        <v>28.3</v>
+      </c>
+      <c r="O4" s="10">
+        <v>6348</v>
+      </c>
+      <c r="P4" s="11">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>56.6</v>
+      </c>
+      <c r="R4" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>31870</v>
+      </c>
+      <c r="D5" s="10">
+        <v>30656</v>
+      </c>
+      <c r="E5" s="10">
+        <v>23209</v>
+      </c>
+      <c r="F5" s="11">
+        <v>75.7</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2701</v>
+      </c>
+      <c r="H5" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4746</v>
+      </c>
+      <c r="J5" s="11">
+        <v>15.5</v>
+      </c>
+      <c r="K5" s="10">
+        <v>21113</v>
+      </c>
+      <c r="L5" s="11">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="M5" s="10">
+        <v>4901</v>
+      </c>
+      <c r="N5" s="11">
+        <v>16</v>
+      </c>
+      <c r="O5" s="10">
+        <v>4642</v>
+      </c>
+      <c r="P5" s="11">
+        <v>15.1</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>72.8</v>
+      </c>
+      <c r="R5" s="11">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>25593</v>
+      </c>
+      <c r="D6" s="10">
+        <v>23974</v>
+      </c>
+      <c r="E6" s="10">
+        <v>19456</v>
+      </c>
+      <c r="F6" s="11">
+        <v>81.2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1128</v>
+      </c>
+      <c r="H6" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="I6" s="10">
+        <v>3390</v>
+      </c>
+      <c r="J6" s="11">
+        <v>14.1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>18521</v>
+      </c>
+      <c r="L6" s="11">
+        <v>77.3</v>
+      </c>
+      <c r="M6" s="10">
+        <v>2121</v>
+      </c>
+      <c r="N6" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O6" s="10">
+        <v>3332</v>
+      </c>
+      <c r="P6" s="11">
+        <v>13.9</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>76</v>
+      </c>
+      <c r="R6" s="11">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>14596</v>
+      </c>
+      <c r="D7" s="10">
+        <v>13222</v>
+      </c>
+      <c r="E7" s="10">
+        <v>11156</v>
+      </c>
+      <c r="F7" s="11">
+        <v>84.4</v>
+      </c>
+      <c r="G7" s="10">
+        <v>369</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1697</v>
+      </c>
+      <c r="J7" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="K7" s="10">
+        <v>10914</v>
+      </c>
+      <c r="L7" s="11">
+        <v>82.5</v>
+      </c>
+      <c r="M7" s="10">
+        <v>630</v>
+      </c>
+      <c r="N7" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="O7" s="10">
+        <v>1677</v>
+      </c>
+      <c r="P7" s="11">
+        <v>12.7</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="R7" s="11">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4327</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2389</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1146</v>
+      </c>
+      <c r="F8" s="11">
+        <v>48</v>
+      </c>
+      <c r="G8" s="10">
+        <v>772</v>
+      </c>
+      <c r="H8" s="11">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="I8" s="10">
+        <v>470</v>
+      </c>
+      <c r="J8" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K8" s="10">
+        <v>912</v>
+      </c>
+      <c r="L8" s="11">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="M8" s="10">
+        <v>1028</v>
+      </c>
+      <c r="N8" s="11">
+        <v>43</v>
+      </c>
+      <c r="O8" s="10">
+        <v>449</v>
+      </c>
+      <c r="P8" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="R8" s="11">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>7054</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5968</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3179</v>
+      </c>
+      <c r="F9" s="11">
+        <v>53.3</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1478</v>
+      </c>
+      <c r="H9" s="11">
+        <v>24.8</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1311</v>
+      </c>
+      <c r="J9" s="11">
+        <v>22</v>
+      </c>
+      <c r="K9" s="10">
+        <v>2620</v>
+      </c>
+      <c r="L9" s="11">
+        <v>43.9</v>
+      </c>
+      <c r="M9" s="10">
+        <v>2120</v>
+      </c>
+      <c r="N9" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="O9" s="10">
+        <v>1228</v>
+      </c>
+      <c r="P9" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>45.1</v>
+      </c>
+      <c r="R9" s="11">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>35846</v>
+      </c>
+      <c r="D10" s="10">
+        <v>33079</v>
+      </c>
+      <c r="E10" s="10">
+        <v>21587</v>
+      </c>
+      <c r="F10" s="11">
+        <v>65.3</v>
+      </c>
+      <c r="G10" s="10">
+        <v>5192</v>
+      </c>
+      <c r="H10" s="11">
+        <v>15.7</v>
+      </c>
+      <c r="I10" s="10">
+        <v>6299</v>
+      </c>
+      <c r="J10" s="11">
+        <v>19</v>
+      </c>
+      <c r="K10" s="10">
+        <v>19082</v>
+      </c>
+      <c r="L10" s="11">
+        <v>57.7</v>
+      </c>
+      <c r="M10" s="10">
+        <v>8030</v>
+      </c>
+      <c r="N10" s="11">
+        <v>24.3</v>
+      </c>
+      <c r="O10" s="10">
+        <v>5966</v>
+      </c>
+      <c r="P10" s="11">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>60.2</v>
+      </c>
+      <c r="R10" s="11">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>36928</v>
+      </c>
+      <c r="D11" s="10">
+        <v>35393</v>
+      </c>
+      <c r="E11" s="10">
+        <v>26975</v>
+      </c>
+      <c r="F11" s="11">
+        <v>76.2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3143</v>
+      </c>
+      <c r="H11" s="11">
+        <v>8.9</v>
+      </c>
+      <c r="I11" s="10">
+        <v>5275</v>
+      </c>
+      <c r="J11" s="11">
+        <v>14.9</v>
+      </c>
+      <c r="K11" s="10">
+        <v>24842</v>
+      </c>
+      <c r="L11" s="11">
+        <v>70.2</v>
+      </c>
+      <c r="M11" s="10">
+        <v>5316</v>
+      </c>
+      <c r="N11" s="11">
+        <v>15</v>
+      </c>
+      <c r="O11" s="10">
+        <v>5234</v>
+      </c>
+      <c r="P11" s="11">
+        <v>14.8</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>73</v>
+      </c>
+      <c r="R11" s="11">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>29504</v>
+      </c>
+      <c r="D12" s="10">
+        <v>27788</v>
+      </c>
+      <c r="E12" s="10">
+        <v>22768</v>
+      </c>
+      <c r="F12" s="11">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1145</v>
+      </c>
+      <c r="H12" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3875</v>
+      </c>
+      <c r="J12" s="11">
+        <v>13.9</v>
+      </c>
+      <c r="K12" s="10">
+        <v>21790</v>
+      </c>
+      <c r="L12" s="11">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="M12" s="10">
+        <v>2163</v>
+      </c>
+      <c r="N12" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="O12" s="10">
+        <v>3835</v>
+      </c>
+      <c r="P12" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>77.2</v>
+      </c>
+      <c r="R12" s="11">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>16746</v>
+      </c>
+      <c r="D13" s="10">
+        <v>15491</v>
+      </c>
+      <c r="E13" s="10">
+        <v>13313</v>
+      </c>
+      <c r="F13" s="11">
+        <v>85.9</v>
+      </c>
+      <c r="G13" s="10">
+        <v>354</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1825</v>
+      </c>
+      <c r="J13" s="11">
+        <v>11.8</v>
+      </c>
+      <c r="K13" s="10">
+        <v>12907</v>
+      </c>
+      <c r="L13" s="11">
+        <v>83.3</v>
+      </c>
+      <c r="M13" s="10">
+        <v>756</v>
+      </c>
+      <c r="N13" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O13" s="10">
+        <v>1828</v>
+      </c>
+      <c r="P13" s="11">
+        <v>11.8</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>79.5</v>
+      </c>
+      <c r="R13" s="11">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>